--- a/data/pca/factorExposure/factorExposure_2009-12-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.004462712306937988</v>
+        <v>0.01679472788211849</v>
       </c>
       <c r="C2">
-        <v>0.01075065345777655</v>
+        <v>-0.001053136720634756</v>
       </c>
       <c r="D2">
-        <v>-0.002785534830672836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007454504457496062</v>
+      </c>
+      <c r="E2">
+        <v>-0.0002718774047397094</v>
+      </c>
+      <c r="F2">
+        <v>0.0113639250119276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.0348127390751081</v>
+        <v>0.09373358055922201</v>
       </c>
       <c r="C4">
-        <v>0.1146076885945067</v>
+        <v>-0.01524634007844754</v>
       </c>
       <c r="D4">
-        <v>0.03117234803175711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08347240680180701</v>
+      </c>
+      <c r="E4">
+        <v>-0.02802007877147824</v>
+      </c>
+      <c r="F4">
+        <v>-0.03112627448530618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.04766110956032757</v>
+        <v>0.1577583594129891</v>
       </c>
       <c r="C6">
-        <v>0.1238785916502807</v>
+        <v>-0.02539602335653136</v>
       </c>
       <c r="D6">
-        <v>-0.04502309922877385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02126235030996663</v>
+      </c>
+      <c r="E6">
+        <v>-0.01132541927432253</v>
+      </c>
+      <c r="F6">
+        <v>-0.04625954731542566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01302442854793982</v>
+        <v>0.06249251472740738</v>
       </c>
       <c r="C7">
-        <v>0.08128309974406221</v>
+        <v>0.001775239732467457</v>
       </c>
       <c r="D7">
-        <v>0.0133294108157845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05356382465307945</v>
+      </c>
+      <c r="E7">
+        <v>-0.01019061157121546</v>
+      </c>
+      <c r="F7">
+        <v>-0.04764788710528263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001630890615923706</v>
+        <v>0.05708900898501006</v>
       </c>
       <c r="C8">
-        <v>0.06826207444705584</v>
+        <v>0.01382105901294399</v>
       </c>
       <c r="D8">
-        <v>-0.01604197930455231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03370086370015824</v>
+      </c>
+      <c r="E8">
+        <v>-0.01736875083584656</v>
+      </c>
+      <c r="F8">
+        <v>0.02780339066238967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03022281481131018</v>
+        <v>0.07117992337533392</v>
       </c>
       <c r="C9">
-        <v>0.09693349862393354</v>
+        <v>-0.01077649279792167</v>
       </c>
       <c r="D9">
-        <v>0.03141561786795034</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08611984804493902</v>
+      </c>
+      <c r="E9">
+        <v>-0.02292890245304085</v>
+      </c>
+      <c r="F9">
+        <v>-0.04752715598447317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01508368398361511</v>
+        <v>0.09565118594118084</v>
       </c>
       <c r="C10">
-        <v>0.03016012743185954</v>
+        <v>-0.02081675971984126</v>
       </c>
       <c r="D10">
-        <v>-0.1234983202252117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1706258893362816</v>
+      </c>
+      <c r="E10">
+        <v>0.0357477359990542</v>
+      </c>
+      <c r="F10">
+        <v>0.05395277266567543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03373150264978139</v>
+        <v>0.08755755977192678</v>
       </c>
       <c r="C11">
-        <v>0.09757999000080526</v>
+        <v>-0.01031146789614944</v>
       </c>
       <c r="D11">
-        <v>0.04802011675085574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1167638843433599</v>
+      </c>
+      <c r="E11">
+        <v>-0.04623999671830874</v>
+      </c>
+      <c r="F11">
+        <v>-0.02186893713608619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03136013394376418</v>
+        <v>0.09192767942986731</v>
       </c>
       <c r="C12">
-        <v>0.1079448528064573</v>
+        <v>-0.007474505232548275</v>
       </c>
       <c r="D12">
-        <v>0.04567775558592411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317756373179416</v>
+      </c>
+      <c r="E12">
+        <v>-0.04774826386504997</v>
+      </c>
+      <c r="F12">
+        <v>-0.02647190880295134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01113554440231722</v>
+        <v>0.04162787387084844</v>
       </c>
       <c r="C13">
-        <v>0.03896731819612602</v>
+        <v>-0.002992091563979412</v>
       </c>
       <c r="D13">
-        <v>0.02627723534104414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05191831011071555</v>
+      </c>
+      <c r="E13">
+        <v>0.008521362246439051</v>
+      </c>
+      <c r="F13">
+        <v>-0.003373327339437167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01839490128598293</v>
+        <v>0.02264441346043712</v>
       </c>
       <c r="C14">
-        <v>0.02440660263314186</v>
+        <v>-0.01373517811170601</v>
       </c>
       <c r="D14">
-        <v>-0.002572187792978918</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03298328716592382</v>
+      </c>
+      <c r="E14">
+        <v>-0.01729932263018867</v>
+      </c>
+      <c r="F14">
+        <v>-0.01364344479312845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01279243144831749</v>
+        <v>0.03295289508688387</v>
       </c>
       <c r="C15">
-        <v>0.0291712016852773</v>
+        <v>-0.00469614432197768</v>
       </c>
       <c r="D15">
-        <v>0.006743553608055048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04507216046482461</v>
+      </c>
+      <c r="E15">
+        <v>-0.006025557757782684</v>
+      </c>
+      <c r="F15">
+        <v>-0.02279079028657794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.02315988805646665</v>
+        <v>0.07425351387621366</v>
       </c>
       <c r="C16">
-        <v>0.1000627081134391</v>
+        <v>-0.001442868015985434</v>
       </c>
       <c r="D16">
-        <v>0.03711647020561738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1253417596261752</v>
+      </c>
+      <c r="E16">
+        <v>-0.06162781216882488</v>
+      </c>
+      <c r="F16">
+        <v>-0.02419522328434042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03213715681506185</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003461989133366716</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01952420262564055</v>
+      </c>
+      <c r="E18">
+        <v>0.007474269339222538</v>
+      </c>
+      <c r="F18">
+        <v>0.00398072508256393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0153304392300856</v>
+        <v>0.06105589903665692</v>
       </c>
       <c r="C20">
-        <v>0.06152057282283652</v>
+        <v>-0.0001466955742373379</v>
       </c>
       <c r="D20">
-        <v>0.005762392712638419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0769764697207497</v>
+      </c>
+      <c r="E20">
+        <v>-0.05538657673946801</v>
+      </c>
+      <c r="F20">
+        <v>-0.02294347142807023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01436112817570862</v>
+        <v>0.04046875493669211</v>
       </c>
       <c r="C21">
-        <v>0.02467433173935636</v>
+        <v>-0.006279994662319807</v>
       </c>
       <c r="D21">
-        <v>0.00501491446802028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03757011646480513</v>
+      </c>
+      <c r="E21">
+        <v>0.005514258347882637</v>
+      </c>
+      <c r="F21">
+        <v>0.02398961120168778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.006332232143586454</v>
+        <v>0.04377721459569074</v>
       </c>
       <c r="C22">
-        <v>0.02994863726939038</v>
+        <v>-0.0007210513381374762</v>
       </c>
       <c r="D22">
-        <v>-0.03312458986251361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004053422244377068</v>
+      </c>
+      <c r="E22">
+        <v>-0.03014584140360398</v>
+      </c>
+      <c r="F22">
+        <v>0.03617949952166624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.006319485870252652</v>
+        <v>0.04376284752560532</v>
       </c>
       <c r="C23">
-        <v>0.02989138031812379</v>
+        <v>-0.0007167550170906055</v>
       </c>
       <c r="D23">
-        <v>-0.03319810830660763</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004057822592940428</v>
+      </c>
+      <c r="E23">
+        <v>-0.03034710229055545</v>
+      </c>
+      <c r="F23">
+        <v>0.0361429547664412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02379575662056262</v>
+        <v>0.08024629447597739</v>
       </c>
       <c r="C24">
-        <v>0.1054449817886332</v>
+        <v>-0.001940082048206321</v>
       </c>
       <c r="D24">
-        <v>0.04042436722817676</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206292475735138</v>
+      </c>
+      <c r="E24">
+        <v>-0.04896236797143812</v>
+      </c>
+      <c r="F24">
+        <v>-0.02611350770712429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02803276864209952</v>
+        <v>0.08488024181927076</v>
       </c>
       <c r="C25">
-        <v>0.1015451239797531</v>
+        <v>-0.004204379263619028</v>
       </c>
       <c r="D25">
-        <v>0.04519701345020914</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094206731863029</v>
+      </c>
+      <c r="E25">
+        <v>-0.03268826079632864</v>
+      </c>
+      <c r="F25">
+        <v>-0.0267766769485595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02623729377877791</v>
+        <v>0.05826410461383642</v>
       </c>
       <c r="C26">
-        <v>0.04846452105284829</v>
+        <v>-0.01443937394565404</v>
       </c>
       <c r="D26">
-        <v>-0.00578417493876981</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03980634697677241</v>
+      </c>
+      <c r="E26">
+        <v>-0.02806137407948172</v>
+      </c>
+      <c r="F26">
+        <v>0.009019305877354129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.0151771284037043</v>
+        <v>0.1406380153974802</v>
       </c>
       <c r="C28">
-        <v>0.05433249542669001</v>
+        <v>-0.02021211741693701</v>
       </c>
       <c r="D28">
-        <v>-0.2124409847950761</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2615987697577921</v>
+      </c>
+      <c r="E28">
+        <v>0.0676161005917628</v>
+      </c>
+      <c r="F28">
+        <v>-0.01005339098935859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01454261527087241</v>
+        <v>0.02782673004711943</v>
       </c>
       <c r="C29">
-        <v>0.02776819121450569</v>
+        <v>-0.008144443454289206</v>
       </c>
       <c r="D29">
-        <v>-0.004155226775637398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03187040451084977</v>
+      </c>
+      <c r="E29">
+        <v>-0.01131052577479005</v>
+      </c>
+      <c r="F29">
+        <v>0.01134265480380624</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.02238848824963354</v>
+        <v>0.06124874517927262</v>
       </c>
       <c r="C30">
-        <v>0.1273723136624106</v>
+        <v>-0.003137823566940378</v>
       </c>
       <c r="D30">
-        <v>0.02994309752588473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08890552204338899</v>
+      </c>
+      <c r="E30">
+        <v>-0.01914810962331141</v>
+      </c>
+      <c r="F30">
+        <v>-0.08318197652453437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02280324621529024</v>
+        <v>0.04987373870948615</v>
       </c>
       <c r="C31">
-        <v>0.03393805805812493</v>
+        <v>-0.01512850991680362</v>
       </c>
       <c r="D31">
-        <v>0.003393006466072297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02488922937634906</v>
+      </c>
+      <c r="E31">
+        <v>-0.02748835375066989</v>
+      </c>
+      <c r="F31">
+        <v>0.00238982456755225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.009880779531423987</v>
+        <v>0.05013376376383522</v>
       </c>
       <c r="C32">
-        <v>0.05476856652718411</v>
+        <v>0.001671370091730516</v>
       </c>
       <c r="D32">
-        <v>-0.01400762067396637</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03668812765359294</v>
+      </c>
+      <c r="E32">
+        <v>-0.03145623296927624</v>
+      </c>
+      <c r="F32">
+        <v>-0.003149104121079981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02764828072443089</v>
+        <v>0.0894670131543351</v>
       </c>
       <c r="C33">
-        <v>0.1071842040560464</v>
+        <v>-0.007529996275850105</v>
       </c>
       <c r="D33">
-        <v>0.03549604916187825</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09906946643101647</v>
+      </c>
+      <c r="E33">
+        <v>-0.04355136742685738</v>
+      </c>
+      <c r="F33">
+        <v>-0.03505661986465632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.03099004258766067</v>
+        <v>0.06797829505590224</v>
       </c>
       <c r="C34">
-        <v>0.09038576264740446</v>
+        <v>-0.01040755226563926</v>
       </c>
       <c r="D34">
-        <v>0.04191246803150248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1074492497942437</v>
+      </c>
+      <c r="E34">
+        <v>-0.03462090626438782</v>
+      </c>
+      <c r="F34">
+        <v>-0.03342631552564125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.005534199313596403</v>
+        <v>0.02437643249133719</v>
       </c>
       <c r="C35">
-        <v>0.01590692169460358</v>
+        <v>-0.002375569877690455</v>
       </c>
       <c r="D35">
-        <v>-0.002147635074626512</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01141264289833523</v>
+      </c>
+      <c r="E35">
+        <v>-0.01156886585705818</v>
+      </c>
+      <c r="F35">
+        <v>-0.0009018098517925876</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01303899726970177</v>
+        <v>0.0279166798137378</v>
       </c>
       <c r="C36">
-        <v>0.02357636302907505</v>
+        <v>-0.007072792819553138</v>
       </c>
       <c r="D36">
-        <v>0.008376719561317393</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03933468222939909</v>
+      </c>
+      <c r="E36">
+        <v>-0.01648138651491542</v>
+      </c>
+      <c r="F36">
+        <v>-0.01517675654540942</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0004320527007636381</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>8.349725265550283e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0005227974436722405</v>
+      </c>
+      <c r="E37">
+        <v>0.0005616155397491549</v>
+      </c>
+      <c r="F37">
+        <v>-0.000538409343467619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0007401310693093697</v>
+        <v>0.001560666027420118</v>
       </c>
       <c r="C38">
-        <v>0.00410879243273419</v>
+        <v>-0.0002683787819027947</v>
       </c>
       <c r="D38">
-        <v>-0.002759469495119641</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0004499414954266982</v>
+      </c>
+      <c r="E38">
+        <v>-0.0002960936463813671</v>
+      </c>
+      <c r="F38">
+        <v>0.0008298655243526585</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04599602763165424</v>
+        <v>0.1051474407140344</v>
       </c>
       <c r="C39">
-        <v>0.1526961937030034</v>
+        <v>-0.01555030428666538</v>
       </c>
       <c r="D39">
-        <v>0.07458154499107783</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1540499803988488</v>
+      </c>
+      <c r="E39">
+        <v>-0.05916237341409911</v>
+      </c>
+      <c r="F39">
+        <v>-0.02901504982677269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01195936963690955</v>
+        <v>0.0413793326505585</v>
       </c>
       <c r="C40">
-        <v>0.01188213230026495</v>
+        <v>-0.006699443259870381</v>
       </c>
       <c r="D40">
-        <v>-0.00509997544384118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03205801349278543</v>
+      </c>
+      <c r="E40">
+        <v>-0.002829619014223474</v>
+      </c>
+      <c r="F40">
+        <v>0.0159801213245747</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01201950958366923</v>
+        <v>0.02784244450398388</v>
       </c>
       <c r="C41">
-        <v>0.01749895553103347</v>
+        <v>-0.006731895494733741</v>
       </c>
       <c r="D41">
-        <v>-0.010434619285722</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01037382264296947</v>
+      </c>
+      <c r="E41">
+        <v>-0.01243126771085502</v>
+      </c>
+      <c r="F41">
+        <v>0.006424277902306623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01451401308751967</v>
+        <v>0.04081698922586541</v>
       </c>
       <c r="C43">
-        <v>0.02734766976652629</v>
+        <v>-0.006779452885253975</v>
       </c>
       <c r="D43">
-        <v>-0.006101835706943339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01934302673744655</v>
+      </c>
+      <c r="E43">
+        <v>-0.0244478633930639</v>
+      </c>
+      <c r="F43">
+        <v>0.01289921655800508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.04309497088306576</v>
+        <v>0.07987552166429705</v>
       </c>
       <c r="C44">
-        <v>0.1289026315131477</v>
+        <v>-0.01975312034635366</v>
       </c>
       <c r="D44">
-        <v>0.02165691836580436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09745399238709941</v>
+      </c>
+      <c r="E44">
+        <v>-0.06474063245713065</v>
+      </c>
+      <c r="F44">
+        <v>-0.1561816360006741</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005537881889558447</v>
+        <v>0.02358729201050381</v>
       </c>
       <c r="C46">
-        <v>0.005874103534948715</v>
+        <v>-0.003455006020635263</v>
       </c>
       <c r="D46">
-        <v>-0.01832503447063983</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01259398158998579</v>
+      </c>
+      <c r="E46">
+        <v>-0.02184190497448545</v>
+      </c>
+      <c r="F46">
+        <v>0.005982560974648153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01159521249836169</v>
+        <v>0.05136425259314206</v>
       </c>
       <c r="C47">
-        <v>0.0321467353740497</v>
+        <v>-0.003303438829048125</v>
       </c>
       <c r="D47">
-        <v>-0.02279038667128537</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0137475428205328</v>
+      </c>
+      <c r="E47">
+        <v>-0.02330765888873913</v>
+      </c>
+      <c r="F47">
+        <v>0.03351713992455742</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01341150910877064</v>
+        <v>0.04992624655468327</v>
       </c>
       <c r="C48">
-        <v>0.04636119790782142</v>
+        <v>-0.002414131763873232</v>
       </c>
       <c r="D48">
-        <v>0.0276027483803091</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04964438900714003</v>
+      </c>
+      <c r="E48">
+        <v>0.006451390885012185</v>
+      </c>
+      <c r="F48">
+        <v>-0.009806249097938979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.05070807322326013</v>
+        <v>0.1998571639776916</v>
       </c>
       <c r="C49">
-        <v>0.2211695324780924</v>
+        <v>-0.01858104605862018</v>
       </c>
       <c r="D49">
-        <v>-0.05327341271709923</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007145469422097215</v>
+      </c>
+      <c r="E49">
+        <v>-0.03119999282158491</v>
+      </c>
+      <c r="F49">
+        <v>-0.03971293392582787</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01994343637335452</v>
+        <v>0.05072367809006677</v>
       </c>
       <c r="C50">
-        <v>0.03840678883424021</v>
+        <v>-0.01119504964180328</v>
       </c>
       <c r="D50">
-        <v>-0.003289476792331935</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0235276795641453</v>
+      </c>
+      <c r="E50">
+        <v>-0.02944631382408963</v>
+      </c>
+      <c r="F50">
+        <v>-0.009263179621743429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0001210895666592659</v>
+        <v>0.0001472042549860114</v>
       </c>
       <c r="C51">
-        <v>6.306579882585011e-05</v>
+        <v>-4.495332530708633e-05</v>
       </c>
       <c r="D51">
-        <v>-4.335870478609039e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0001066572810939025</v>
+      </c>
+      <c r="E51">
+        <v>0.0003498549058780549</v>
+      </c>
+      <c r="F51">
+        <v>-0.002181103612360286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03894089144616922</v>
+        <v>0.1461723293930522</v>
       </c>
       <c r="C52">
-        <v>0.1513350780725139</v>
+        <v>-0.01548841798790628</v>
       </c>
       <c r="D52">
-        <v>0.02194533549075416</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04490960410584966</v>
+      </c>
+      <c r="E52">
+        <v>-0.02058903337068836</v>
+      </c>
+      <c r="F52">
+        <v>-0.04148771388287789</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.04218632990335587</v>
+        <v>0.1718820057806275</v>
       </c>
       <c r="C53">
-        <v>0.1736669519617588</v>
+        <v>-0.01864049307885865</v>
       </c>
       <c r="D53">
-        <v>-0.01134505354408307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006873555242044352</v>
+      </c>
+      <c r="E53">
+        <v>-0.03183675243521025</v>
+      </c>
+      <c r="F53">
+        <v>-0.07240490940156384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01771480356123221</v>
+        <v>0.02303435167566305</v>
       </c>
       <c r="C54">
-        <v>0.03654762362876487</v>
+        <v>-0.01247448325912064</v>
       </c>
       <c r="D54">
-        <v>0.0009288023525532376</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03336118165722961</v>
+      </c>
+      <c r="E54">
+        <v>-0.01809455642654701</v>
+      </c>
+      <c r="F54">
+        <v>0.003323208143525404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02942326473890859</v>
+        <v>0.113739544655521</v>
       </c>
       <c r="C55">
-        <v>0.08904927434987538</v>
+        <v>-0.01631421381506093</v>
       </c>
       <c r="D55">
-        <v>0.004245657718788669</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01004915132540774</v>
+      </c>
+      <c r="E55">
+        <v>-0.02839330074284103</v>
+      </c>
+      <c r="F55">
+        <v>-0.04682767762066473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03934816513619346</v>
+        <v>0.17666157980415</v>
       </c>
       <c r="C56">
-        <v>0.1568270970784768</v>
+        <v>-0.01616258891444469</v>
       </c>
       <c r="D56">
-        <v>-0.01256466722341427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001113911750442197</v>
+      </c>
+      <c r="E56">
+        <v>-0.03570190067756798</v>
+      </c>
+      <c r="F56">
+        <v>-0.05072556740259868</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01438313810003527</v>
+        <v>0.04615783745397065</v>
       </c>
       <c r="C58">
-        <v>0.04835111204356848</v>
+        <v>-0.0003251845012761206</v>
       </c>
       <c r="D58">
-        <v>0.01836009958341776</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06755761507741342</v>
+      </c>
+      <c r="E58">
+        <v>-0.02704611478911272</v>
+      </c>
+      <c r="F58">
+        <v>0.0361448321120954</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.02296004270944979</v>
+        <v>0.1681747256401503</v>
       </c>
       <c r="C59">
-        <v>0.1061440088408276</v>
+        <v>-0.02077327836773002</v>
       </c>
       <c r="D59">
-        <v>-0.2147074258326361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2178962203850889</v>
+      </c>
+      <c r="E59">
+        <v>0.04604598239266513</v>
+      </c>
+      <c r="F59">
+        <v>0.03441004479921864</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.04005390765125219</v>
+        <v>0.2312060262015379</v>
       </c>
       <c r="C60">
-        <v>0.2718659964536014</v>
+        <v>0.003070394287144777</v>
       </c>
       <c r="D60">
-        <v>0.006681150482139725</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04295710833904559</v>
+      </c>
+      <c r="E60">
+        <v>-0.01171495525882762</v>
+      </c>
+      <c r="F60">
+        <v>0.00636582468159045</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03294919160016655</v>
+        <v>0.08181995191036857</v>
       </c>
       <c r="C61">
-        <v>0.1151837207059276</v>
+        <v>-0.01152904995984607</v>
       </c>
       <c r="D61">
-        <v>0.03895146871215867</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1165168028875904</v>
+      </c>
+      <c r="E61">
+        <v>-0.03858463300187404</v>
+      </c>
+      <c r="F61">
+        <v>-0.01146929626146846</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.04204132661867585</v>
+        <v>0.1705058380139125</v>
       </c>
       <c r="C62">
-        <v>0.1600546333269396</v>
+        <v>-0.01961188272275587</v>
       </c>
       <c r="D62">
-        <v>-0.005598447171389086</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006797315350359475</v>
+      </c>
+      <c r="E62">
+        <v>-0.0353315548217428</v>
+      </c>
+      <c r="F62">
+        <v>-0.03287152398993423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01302452112027017</v>
+        <v>0.04600260330270493</v>
       </c>
       <c r="C63">
-        <v>0.04848363126713949</v>
+        <v>-0.001875201341403365</v>
       </c>
       <c r="D63">
-        <v>0.02224897790844623</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05796097670206618</v>
+      </c>
+      <c r="E63">
+        <v>-0.02127798450994787</v>
+      </c>
+      <c r="F63">
+        <v>-0.005466845208637707</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0286961496534146</v>
+        <v>0.1105877690233282</v>
       </c>
       <c r="C64">
-        <v>0.09438364388683652</v>
+        <v>-0.01098925862915569</v>
       </c>
       <c r="D64">
-        <v>-0.002638342937673208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04313877744569651</v>
+      </c>
+      <c r="E64">
+        <v>-0.02447953059144102</v>
+      </c>
+      <c r="F64">
+        <v>-0.02604828025931427</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.04885306447426618</v>
+        <v>0.1475742021398844</v>
       </c>
       <c r="C65">
-        <v>0.1149368418748098</v>
+        <v>-0.03256052443824353</v>
       </c>
       <c r="D65">
-        <v>-0.0379396059386511</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04048025770966693</v>
+      </c>
+      <c r="E65">
+        <v>-0.00485979713419194</v>
+      </c>
+      <c r="F65">
+        <v>-0.03977479452457703</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04698574039722712</v>
+        <v>0.1246893876897485</v>
       </c>
       <c r="C66">
-        <v>0.1831063286861048</v>
+        <v>-0.0136241695487281</v>
       </c>
       <c r="D66">
-        <v>0.06583074174778804</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1424206835243815</v>
+      </c>
+      <c r="E66">
+        <v>-0.06644450616890352</v>
+      </c>
+      <c r="F66">
+        <v>-0.03135607631393092</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01729931698916</v>
+        <v>0.06066318532988667</v>
       </c>
       <c r="C67">
-        <v>0.07444636511835544</v>
+        <v>-0.003140169574705003</v>
       </c>
       <c r="D67">
-        <v>0.00540104159232947</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05542509088173221</v>
+      </c>
+      <c r="E67">
+        <v>-0.01752243180965151</v>
+      </c>
+      <c r="F67">
+        <v>0.03396244813640377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.02235390530656784</v>
+        <v>0.1166341907172134</v>
       </c>
       <c r="C68">
-        <v>0.03426988971973546</v>
+        <v>-0.03122650431376075</v>
       </c>
       <c r="D68">
-        <v>-0.180557959642868</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2605718918151099</v>
+      </c>
+      <c r="E68">
+        <v>0.08660700459642738</v>
+      </c>
+      <c r="F68">
+        <v>-0.005682670346490705</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.009196335559572192</v>
+        <v>0.03987522202575686</v>
       </c>
       <c r="C69">
-        <v>0.03800810064136093</v>
+        <v>-0.001346397613238587</v>
       </c>
       <c r="D69">
-        <v>-0.01812437564260911</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00699879079339582</v>
+      </c>
+      <c r="E69">
+        <v>-0.02271816967806662</v>
+      </c>
+      <c r="F69">
+        <v>0.0005738187135041098</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.01715989184914218</v>
+        <v>0.06572340011693589</v>
       </c>
       <c r="C70">
-        <v>0.01266230591138843</v>
+        <v>0.02796381847811475</v>
       </c>
       <c r="D70">
-        <v>-0.01817514339363466</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02480683019733678</v>
+      </c>
+      <c r="E70">
+        <v>0.03935780734897498</v>
+      </c>
+      <c r="F70">
+        <v>0.1848412067337238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02753385858301489</v>
+        <v>0.1367175798640232</v>
       </c>
       <c r="C71">
-        <v>0.04671245396247815</v>
+        <v>-0.03556775025135785</v>
       </c>
       <c r="D71">
-        <v>-0.1960511244510656</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2730333801225515</v>
+      </c>
+      <c r="E71">
+        <v>0.09626500963307473</v>
+      </c>
+      <c r="F71">
+        <v>-0.01222429285883833</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.04418796158403734</v>
+        <v>0.1420096227480281</v>
       </c>
       <c r="C72">
-        <v>0.1253565499324662</v>
+        <v>-0.02592149685979318</v>
       </c>
       <c r="D72">
-        <v>-0.03323321716812925</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001297336465439718</v>
+      </c>
+      <c r="E72">
+        <v>-0.03814419876822513</v>
+      </c>
+      <c r="F72">
+        <v>-0.03333692502683651</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.04657595929797</v>
+        <v>0.2008417149376164</v>
       </c>
       <c r="C73">
-        <v>0.212208913523803</v>
+        <v>-0.01212006635639593</v>
       </c>
       <c r="D73">
-        <v>-0.04721186722556335</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01757730016761196</v>
+      </c>
+      <c r="E73">
+        <v>-0.06385184454888933</v>
+      </c>
+      <c r="F73">
+        <v>-0.03861094341566898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02795657670631354</v>
+        <v>0.09433856990911656</v>
       </c>
       <c r="C74">
-        <v>0.1137539202438453</v>
+        <v>-0.01312485308753149</v>
       </c>
       <c r="D74">
-        <v>-0.02535913712447985</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01708394982003563</v>
+      </c>
+      <c r="E74">
+        <v>-0.04385770794800264</v>
+      </c>
+      <c r="F74">
+        <v>-0.05648285922436407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04904414314938799</v>
+        <v>0.1278580076102487</v>
       </c>
       <c r="C75">
-        <v>0.1338968988693696</v>
+        <v>-0.0276123789470808</v>
       </c>
       <c r="D75">
-        <v>-0.0190871227074703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03040069482195708</v>
+      </c>
+      <c r="E75">
+        <v>-0.05834625384534541</v>
+      </c>
+      <c r="F75">
+        <v>-0.01838403328638645</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0001654196981719688</v>
+        <v>0.0003344294431599892</v>
       </c>
       <c r="C76">
-        <v>0.001069675654721431</v>
+        <v>-0.0001129666439564378</v>
       </c>
       <c r="D76">
-        <v>-0.001035444959293511</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0004183006007450733</v>
+      </c>
+      <c r="E76">
+        <v>7.652156567410811e-05</v>
+      </c>
+      <c r="F76">
+        <v>-0.0004260394140320394</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02872111419469672</v>
+        <v>0.08706265335658538</v>
       </c>
       <c r="C77">
-        <v>0.0990494559881536</v>
+        <v>-0.008093110617127103</v>
       </c>
       <c r="D77">
-        <v>0.05807777401274057</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1127431705326622</v>
+      </c>
+      <c r="E77">
+        <v>-0.03870561852170434</v>
+      </c>
+      <c r="F77">
+        <v>-0.032466613900586</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.06441343908031338</v>
+        <v>0.1004304102959131</v>
       </c>
       <c r="C78">
-        <v>0.142670342837127</v>
+        <v>-0.03923602201542917</v>
       </c>
       <c r="D78">
-        <v>-0.009500796931216499</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.116231465601752</v>
+      </c>
+      <c r="E78">
+        <v>-0.07381613719714378</v>
+      </c>
+      <c r="F78">
+        <v>-0.04466114725632116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.04425694314901474</v>
+        <v>0.1645669648645949</v>
       </c>
       <c r="C79">
-        <v>0.1438523670151928</v>
+        <v>-0.022210876972605</v>
       </c>
       <c r="D79">
-        <v>-0.02331446714565157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01488778980805238</v>
+      </c>
+      <c r="E79">
+        <v>-0.04611468644679866</v>
+      </c>
+      <c r="F79">
+        <v>-0.01060683609515082</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.01410928404044829</v>
+        <v>0.0827124688489589</v>
       </c>
       <c r="C80">
-        <v>0.0845433607072849</v>
+        <v>0.0008935963476833571</v>
       </c>
       <c r="D80">
-        <v>-0.00238853115679018</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05591430830042726</v>
+      </c>
+      <c r="E80">
+        <v>-0.03648832309790145</v>
+      </c>
+      <c r="F80">
+        <v>0.02355247227585138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.05021726606974219</v>
+        <v>0.1214895292192376</v>
       </c>
       <c r="C81">
-        <v>0.1319815961652338</v>
+        <v>-0.03158728219527968</v>
       </c>
       <c r="D81">
-        <v>-0.01003609688450119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01538381403363933</v>
+      </c>
+      <c r="E81">
+        <v>-0.05752914351458728</v>
+      </c>
+      <c r="F81">
+        <v>-0.01616882921493565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.0463242476610559</v>
+        <v>0.1658706345640365</v>
       </c>
       <c r="C82">
-        <v>0.162251509988255</v>
+        <v>-0.02398271286187722</v>
       </c>
       <c r="D82">
-        <v>-0.007689285201140685</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004200148627191726</v>
+      </c>
+      <c r="E82">
+        <v>-0.0284856044228121</v>
+      </c>
+      <c r="F82">
+        <v>-0.08004343483587782</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01960255110115273</v>
+        <v>0.06000172191705939</v>
       </c>
       <c r="C83">
-        <v>0.06536883791049672</v>
+        <v>-0.002819300412740858</v>
       </c>
       <c r="D83">
-        <v>0.01013779622536833</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05109456994522579</v>
+      </c>
+      <c r="E83">
+        <v>-0.00524299892513653</v>
+      </c>
+      <c r="F83">
+        <v>0.0316206105495994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02829848344770255</v>
+        <v>0.05874577414268918</v>
       </c>
       <c r="C84">
-        <v>0.07485684484446163</v>
+        <v>-0.01092155317636292</v>
       </c>
       <c r="D84">
-        <v>0.0375666412795304</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06394225374692381</v>
+      </c>
+      <c r="E84">
+        <v>-0.006576495369135115</v>
+      </c>
+      <c r="F84">
+        <v>-0.004182838419500411</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.045766988481568</v>
+        <v>0.1365318206806234</v>
       </c>
       <c r="C85">
-        <v>0.1208121071222044</v>
+        <v>-0.02750618934000754</v>
       </c>
       <c r="D85">
-        <v>-0.01213688383318408</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01061456670193879</v>
+      </c>
+      <c r="E85">
+        <v>-0.03853053185640751</v>
+      </c>
+      <c r="F85">
+        <v>-0.04475314341566445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0159108857031446</v>
+        <v>0.09429252826153005</v>
       </c>
       <c r="C86">
-        <v>0.0887758544592455</v>
+        <v>0.006439432246059792</v>
       </c>
       <c r="D86">
-        <v>-0.1596425462589121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0413124152411477</v>
+      </c>
+      <c r="E86">
+        <v>-0.213036378908921</v>
+      </c>
+      <c r="F86">
+        <v>0.9082573292802593</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.04505927879674365</v>
+        <v>0.09700334880879348</v>
       </c>
       <c r="C87">
-        <v>0.1071137766047585</v>
+        <v>-0.01949452599151773</v>
       </c>
       <c r="D87">
-        <v>0.06075995721752918</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09601004017908638</v>
+      </c>
+      <c r="E87">
+        <v>0.05101993408657312</v>
+      </c>
+      <c r="F87">
+        <v>-0.05389511644226968</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01599308777805538</v>
+        <v>0.06060678017291348</v>
       </c>
       <c r="C88">
-        <v>0.05896865246310883</v>
+        <v>-0.002106361150017952</v>
       </c>
       <c r="D88">
-        <v>0.00647967714204254</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04960897664778836</v>
+      </c>
+      <c r="E88">
+        <v>-0.02459934552490671</v>
+      </c>
+      <c r="F88">
+        <v>-0.01200162628753411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.01043702217032966</v>
+        <v>0.1341812608206439</v>
       </c>
       <c r="C89">
-        <v>0.06518601354360649</v>
+        <v>-0.01293255938318214</v>
       </c>
       <c r="D89">
-        <v>-0.2276667686538029</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2506444446813151</v>
+      </c>
+      <c r="E89">
+        <v>0.09136380347129905</v>
+      </c>
+      <c r="F89">
+        <v>0.008400224258563353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.02668700072224413</v>
+        <v>0.1510230890006503</v>
       </c>
       <c r="C90">
-        <v>0.05180990389911747</v>
+        <v>-0.03180380132453944</v>
       </c>
       <c r="D90">
-        <v>-0.2007694282881726</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2697281141113577</v>
+      </c>
+      <c r="E90">
+        <v>0.1128390377223582</v>
+      </c>
+      <c r="F90">
+        <v>0.00170424800696416</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.03022985916774942</v>
+        <v>0.1203865214867815</v>
       </c>
       <c r="C91">
-        <v>0.1009131051431862</v>
+        <v>-0.0186958287528385</v>
       </c>
       <c r="D91">
-        <v>-0.0209346138733745</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01291348056450399</v>
+      </c>
+      <c r="E91">
+        <v>-0.05638592631523155</v>
+      </c>
+      <c r="F91">
+        <v>0.00282884200645008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.01415736167828317</v>
+        <v>0.1477163020374922</v>
       </c>
       <c r="C92">
-        <v>0.07058347877344952</v>
+        <v>-0.02342705792336241</v>
       </c>
       <c r="D92">
-        <v>-0.2262370988442215</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2919439458616301</v>
+      </c>
+      <c r="E92">
+        <v>0.1014669744113323</v>
+      </c>
+      <c r="F92">
+        <v>0.01319420296503215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.02308638315614903</v>
+        <v>0.1523454524996845</v>
       </c>
       <c r="C93">
-        <v>0.06110251535953694</v>
+        <v>-0.02761326352001393</v>
       </c>
       <c r="D93">
-        <v>-0.2222805023506375</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2689298727802966</v>
+      </c>
+      <c r="E93">
+        <v>0.0777088833904911</v>
+      </c>
+      <c r="F93">
+        <v>-0.002902337775100411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04673110942614379</v>
+        <v>0.1303716756720163</v>
       </c>
       <c r="C94">
-        <v>0.1444255221381689</v>
+        <v>-0.02442662317911745</v>
       </c>
       <c r="D94">
-        <v>0.0005432106895847898</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04317944620427824</v>
+      </c>
+      <c r="E94">
+        <v>-0.05812588898847779</v>
+      </c>
+      <c r="F94">
+        <v>-0.03576843704917729</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.03132807086063124</v>
+        <v>0.1275531062172568</v>
       </c>
       <c r="C95">
-        <v>0.1379952934877574</v>
+        <v>-0.003629127926041628</v>
       </c>
       <c r="D95">
-        <v>0.03275013588205151</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09087173297214945</v>
+      </c>
+      <c r="E95">
+        <v>-0.04599959154009674</v>
+      </c>
+      <c r="F95">
+        <v>0.007206781061080233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9627769448484021</v>
+        <v>0.1049599942420503</v>
       </c>
       <c r="C96">
-        <v>0.2531664717888785</v>
+        <v>0.9876769643039285</v>
       </c>
       <c r="D96">
-        <v>-0.02993139461359791</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04750828386545878</v>
+      </c>
+      <c r="E96">
+        <v>-0.05543936438585858</v>
+      </c>
+      <c r="F96">
+        <v>-0.04230282697435386</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.01968747870956572</v>
+        <v>0.1930521169576183</v>
       </c>
       <c r="C97">
-        <v>0.1690650639112107</v>
+        <v>0.007591293822544584</v>
       </c>
       <c r="D97">
-        <v>-0.1066501103710338</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01837245502453273</v>
+      </c>
+      <c r="E97">
+        <v>-0.01799818387949468</v>
+      </c>
+      <c r="F97">
+        <v>0.09093789203091741</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.03431886507972231</v>
+        <v>0.2044859246321407</v>
       </c>
       <c r="C98">
-        <v>0.1958349305561752</v>
+        <v>-0.006882662551346664</v>
       </c>
       <c r="D98">
-        <v>-0.005999695093335608</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01422007027847845</v>
+      </c>
+      <c r="E98">
+        <v>0.08342345547207407</v>
+      </c>
+      <c r="F98">
+        <v>0.09425520055798846</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.007344024670987831</v>
+        <v>0.05572756866619333</v>
       </c>
       <c r="C99">
-        <v>0.06214217563272031</v>
+        <v>0.004906098544405132</v>
       </c>
       <c r="D99">
-        <v>-0.004214898950423354</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03948177511108506</v>
+      </c>
+      <c r="E99">
+        <v>-0.02296807487217343</v>
+      </c>
+      <c r="F99">
+        <v>-0.001288003395342352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.0003063801780492882</v>
+        <v>0.125285258725713</v>
       </c>
       <c r="C100">
-        <v>0.150063073229783</v>
+        <v>0.05466233497619712</v>
       </c>
       <c r="D100">
-        <v>0.7314511621278948</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3444749120140705</v>
+      </c>
+      <c r="E100">
+        <v>0.8891151067804516</v>
+      </c>
+      <c r="F100">
+        <v>0.1414799949267775</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01440860659994045</v>
+        <v>0.02775817319852291</v>
       </c>
       <c r="C101">
-        <v>0.0275900228880422</v>
+        <v>-0.008155801957077758</v>
       </c>
       <c r="D101">
-        <v>-0.004171814375632876</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03153578077008935</v>
+      </c>
+      <c r="E101">
+        <v>-0.01071479058640899</v>
+      </c>
+      <c r="F101">
+        <v>0.01262859564538588</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
